--- a/ppx-ocaml-4.06-irmin-1.4.0/test/heap_leftlist/fs/diff_results.xlsx
+++ b/ppx-ocaml-4.06-irmin-1.4.0/test/heap_leftlist/fs/diff_results.xlsx
@@ -758,49 +758,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.73</c:v>
+                  <c:v>2.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.28</c:v>
+                  <c:v>3.61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.99</c:v>
+                  <c:v>4.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.92</c:v>
+                  <c:v>6.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.44</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.35</c:v>
+                  <c:v>9.4700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.33</c:v>
+                  <c:v>10.49</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.75</c:v>
+                  <c:v>13.26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.98</c:v>
+                  <c:v>13.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.510000000000002</c:v>
+                  <c:v>14.77</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.809999999999999</c:v>
+                  <c:v>17.05</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.940000000000001</c:v>
+                  <c:v>17.36</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.920000000000002</c:v>
+                  <c:v>18.98</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.940000000000001</c:v>
+                  <c:v>20.85</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.59</c:v>
+                  <c:v>20.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -899,16 +899,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>65</c:v>
@@ -917,31 +917,31 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>89</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>120</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>136</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>144</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>148</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>162</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>181</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>193</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,49 +1048,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.87</c:v>
+                  <c:v>1.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.42</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0299999999999998</c:v>
+                  <c:v>1.81</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.78</c:v>
+                  <c:v>2.76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.88</c:v>
+                  <c:v>3.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.62</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.94</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4800000000000004</c:v>
+                  <c:v>5.14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.29</c:v>
+                  <c:v>5.34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.34</c:v>
+                  <c:v>5.57</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.29</c:v>
+                  <c:v>6.48</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.33</c:v>
+                  <c:v>6.45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.63</c:v>
+                  <c:v>7.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.37</c:v>
+                  <c:v>7.85</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.02</c:v>
+                  <c:v>7.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2068,14 +2068,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2403,7 +2403,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2438,13 +2438,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>0.87</v>
+        <v>1.01</v>
       </c>
       <c r="D2">
-        <v>1.73</v>
+        <v>2.13</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2455,13 +2455,13 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="D3">
-        <v>3.28</v>
+        <v>3.61</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2472,13 +2472,13 @@
         <v>30</v>
       </c>
       <c r="C4">
-        <v>2.0299999999999998</v>
+        <v>1.81</v>
       </c>
       <c r="D4">
-        <v>4.99</v>
+        <v>4.42</v>
       </c>
       <c r="E4">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2489,13 +2489,13 @@
         <v>40</v>
       </c>
       <c r="C5">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="D5">
-        <v>6.92</v>
+        <v>6.82</v>
       </c>
       <c r="E5">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2506,10 +2506,10 @@
         <v>50</v>
       </c>
       <c r="C6">
-        <v>2.88</v>
+        <v>3.17</v>
       </c>
       <c r="D6">
-        <v>7.44</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>65</v>
@@ -2526,7 +2526,7 @@
         <v>3.62</v>
       </c>
       <c r="D7">
-        <v>9.35</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="E7">
         <v>79</v>
@@ -2540,13 +2540,13 @@
         <v>70</v>
       </c>
       <c r="C8">
-        <v>3.94</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>10.33</v>
+        <v>10.49</v>
       </c>
       <c r="E8">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2557,13 +2557,13 @@
         <v>80</v>
       </c>
       <c r="C9">
-        <v>4.4800000000000004</v>
+        <v>5.14</v>
       </c>
       <c r="D9">
-        <v>11.75</v>
+        <v>13.26</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2574,13 +2574,13 @@
         <v>90</v>
       </c>
       <c r="C10">
-        <v>5.29</v>
+        <v>5.34</v>
       </c>
       <c r="D10">
-        <v>13.98</v>
+        <v>13.9</v>
       </c>
       <c r="E10">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2591,13 +2591,13 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <v>6.34</v>
+        <v>5.57</v>
       </c>
       <c r="D11">
-        <v>16.510000000000002</v>
+        <v>14.77</v>
       </c>
       <c r="E11">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2608,13 +2608,13 @@
         <v>110</v>
       </c>
       <c r="C12">
-        <v>6.29</v>
+        <v>6.48</v>
       </c>
       <c r="D12">
-        <v>16.809999999999999</v>
+        <v>17.05</v>
       </c>
       <c r="E12">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2625,13 +2625,13 @@
         <v>120</v>
       </c>
       <c r="C13">
-        <v>6.33</v>
+        <v>6.45</v>
       </c>
       <c r="D13">
-        <v>16.940000000000001</v>
+        <v>17.36</v>
       </c>
       <c r="E13">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2642,13 +2642,13 @@
         <v>130</v>
       </c>
       <c r="C14">
-        <v>6.63</v>
+        <v>7.08</v>
       </c>
       <c r="D14">
-        <v>17.920000000000002</v>
+        <v>18.98</v>
       </c>
       <c r="E14">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2659,13 +2659,13 @@
         <v>140</v>
       </c>
       <c r="C15">
-        <v>7.37</v>
+        <v>7.85</v>
       </c>
       <c r="D15">
-        <v>19.940000000000001</v>
+        <v>20.85</v>
       </c>
       <c r="E15">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2676,13 +2676,13 @@
         <v>150</v>
       </c>
       <c r="C16">
-        <v>8.02</v>
+        <v>7.47</v>
       </c>
       <c r="D16">
-        <v>21.59</v>
+        <v>20.43</v>
       </c>
       <c r="E16">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
